--- a/medicine/Œil et vue/Épithélite_rétinienne_aiguë/Épithélite_rétinienne_aiguë.xlsx
+++ b/medicine/Œil et vue/Épithélite_rétinienne_aiguë/Épithélite_rétinienne_aiguë.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lite_r%C3%A9tinienne_aigu%C3%AB</t>
+          <t>Épithélite_rétinienne_aiguë</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithélite rétinienne aiguë ou ARPE (acute retinal pigment epitheliitis) est une affection rare de l'œil, de diagnostic difficile. Elle survient chez l'homme comme chez la femme et entraine une baisse d'acuité visuelle brutale, parfois bilatérale[1]. L'étiologie reste indéterminée, mais survient fréquemment après un épisode viral de type pseudo-grippal ou un épisode de stress inflammatoire[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithélite rétinienne aiguë ou ARPE (acute retinal pigment epitheliitis) est une affection rare de l'œil, de diagnostic difficile. Elle survient chez l'homme comme chez la femme et entraine une baisse d'acuité visuelle brutale, parfois bilatérale. L'étiologie reste indéterminée, mais survient fréquemment après un épisode viral de type pseudo-grippal ou un épisode de stress inflammatoire.  
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lite_r%C3%A9tinienne_aigu%C3%AB</t>
+          <t>Épithélite_rétinienne_aiguë</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fond d'œil / rétinographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes cliniques sont discrets et sont caractérisés par de fins remaniements pigmentaires au niveau de la fovéa entourés d'un halo hypo pigmenté jaunâtre. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lite_r%C3%A9tinienne_aigu%C3%AB</t>
+          <t>Épithélite_rétinienne_aiguë</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>OCT</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve une interruption de la couche d'interdigitation avec un soulèvement de la couche ellipsoide associé à des dépôts hyperréflectifs remontant vers la limitante externe au niveau de la fovéa. 
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lite_r%C3%A9tinienne_aigu%C3%AB</t>
+          <t>Épithélite_rétinienne_aiguë</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la majorité des cas le pronostic est favorable et la récupération visuelle s'effectue en 6 à 12 semaines sans traitement. Les traitements par corticoïdes sont déconseillés. Les signes OCT disparaissent dans la plus par des cas, même si occasionnellement des anomalies peuvent persistés au niveau de la zone ellipsoïde associé à un récupération de la vue incomplète[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la majorité des cas le pronostic est favorable et la récupération visuelle s'effectue en 6 à 12 semaines sans traitement. Les traitements par corticoïdes sont déconseillés. Les signes OCT disparaissent dans la plus par des cas, même si occasionnellement des anomalies peuvent persistés au niveau de la zone ellipsoïde associé à un récupération de la vue incomplète.
 </t>
         </is>
       </c>
